--- a/parts/MCU_atmega328p/arduino_2_328_PinOut.xlsx
+++ b/parts/MCU_atmega328p/arduino_2_328_PinOut.xlsx
@@ -509,7 +509,7 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -536,7 +536,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C3" s="3"/>
     </row>
@@ -545,7 +545,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C4" s="3"/>
     </row>
@@ -554,7 +554,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="3"/>
     </row>
@@ -563,7 +563,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="3"/>
     </row>
@@ -666,7 +666,7 @@
         <v>7</v>
       </c>
       <c r="B21" s="3">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -674,7 +674,7 @@
         <v>6</v>
       </c>
       <c r="B22" s="3">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:2">

--- a/parts/MCU_atmega328p/arduino_2_328_PinOut.xlsx
+++ b/parts/MCU_atmega328p/arduino_2_328_PinOut.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000" iterate="1" iterateCount="10" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>arduino pin</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>reset</t>
+  </si>
+  <si>
+    <t>encoder</t>
   </si>
 </sst>
 </file>
@@ -509,7 +512,7 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -615,6 +618,9 @@
       <c r="B13" t="s">
         <v>13</v>
       </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3">
@@ -623,6 +629,9 @@
       <c r="B14" t="s">
         <v>14</v>
       </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3">
@@ -631,6 +640,9 @@
       <c r="B15" t="s">
         <v>15</v>
       </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3">
@@ -640,7 +652,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:3">
       <c r="A17" s="3">
         <v>12</v>
       </c>
@@ -648,7 +660,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:3">
       <c r="A18" s="3">
         <v>13</v>
       </c>
@@ -656,12 +668,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -669,7 +681,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -677,20 +689,23 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>22</v>
       </c>
       <c r="B25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -698,12 +713,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:3">
       <c r="A29" s="3">
         <v>1</v>
       </c>
@@ -711,7 +726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:3">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
     </row>

--- a/parts/MCU_atmega328p/arduino_2_328_PinOut.xlsx
+++ b/parts/MCU_atmega328p/arduino_2_328_PinOut.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15480" tabRatio="500"/>
+    <workbookView xWindow="-27760" yWindow="400" windowWidth="25600" windowHeight="15480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>arduino pin</t>
   </si>
@@ -102,7 +102,31 @@
     <t>reset</t>
   </si>
   <si>
-    <t>encoder</t>
+    <t>A0 from encoder</t>
+  </si>
+  <si>
+    <t>A1 from encoder</t>
+  </si>
+  <si>
+    <t>A2 from encoder</t>
+  </si>
+  <si>
+    <t>select encoder</t>
+  </si>
+  <si>
+    <t>LCD</t>
+  </si>
+  <si>
+    <t>ethernet pin 2</t>
+  </si>
+  <si>
+    <t>ethernet pin 3</t>
+  </si>
+  <si>
+    <t>ethernet pin 4</t>
+  </si>
+  <si>
+    <t>ethernet pin 5</t>
   </si>
 </sst>
 </file>
@@ -164,8 +188,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -177,9 +203,11 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -509,19 +537,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20">
+    <row r="1" spans="1:4" ht="20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -529,12 +559,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -543,7 +573,7 @@
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -552,7 +582,7 @@
       </c>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -561,7 +591,7 @@
       </c>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -570,16 +600,16 @@
       </c>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4">
       <c r="A9" s="3">
         <v>4</v>
       </c>
@@ -587,7 +617,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10" s="3">
         <v>5</v>
       </c>
@@ -595,7 +625,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4">
       <c r="A11" s="3">
         <v>6</v>
       </c>
@@ -603,7 +633,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:4">
       <c r="A12" s="3">
         <v>7</v>
       </c>
@@ -611,7 +641,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:4">
       <c r="A13" s="3">
         <v>8</v>
       </c>
@@ -621,8 +651,11 @@
       <c r="C13" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="3">
         <v>9</v>
       </c>
@@ -630,10 +663,13 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="3">
         <v>10</v>
       </c>
@@ -641,10 +677,13 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>29</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="3">
         <v>11</v>
       </c>
@@ -652,7 +691,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:4">
       <c r="A17" s="3">
         <v>12</v>
       </c>
@@ -660,7 +699,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:4">
       <c r="A18" s="3">
         <v>13</v>
       </c>
@@ -668,33 +707,39 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>7</v>
       </c>
       <c r="B21" s="3">
         <v>27</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>6</v>
       </c>
       <c r="B22" s="3">
         <v>28</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="C22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -702,10 +747,13 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>30</v>
+      </c>
+      <c r="D25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -713,12 +761,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:4">
       <c r="A29" s="3">
         <v>1</v>
       </c>
@@ -726,7 +774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:4">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
     </row>

--- a/parts/MCU_atmega328p/arduino_2_328_PinOut.xlsx
+++ b/parts/MCU_atmega328p/arduino_2_328_PinOut.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-27760" yWindow="400" windowWidth="25600" windowHeight="15480" tabRatio="500"/>
+    <workbookView xWindow="16580" yWindow="1000" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>arduino pin</t>
   </si>
@@ -127,6 +127,18 @@
   </si>
   <si>
     <t>ethernet pin 5</t>
+  </si>
+  <si>
+    <t>27-PC4</t>
+  </si>
+  <si>
+    <t>28-PC5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solonoid </t>
+  </si>
+  <si>
+    <t>LCD-!RST</t>
   </si>
 </sst>
 </file>
@@ -540,7 +552,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -616,6 +628,9 @@
       <c r="B9" t="s">
         <v>9</v>
       </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="3">
@@ -624,6 +639,9 @@
       <c r="B10" t="s">
         <v>10</v>
       </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="3">
@@ -716,8 +734,8 @@
       <c r="A21" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="3">
-        <v>27</v>
+      <c r="B21" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="C21" t="s">
         <v>31</v>
@@ -727,8 +745,8 @@
       <c r="A22" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="3">
-        <v>28</v>
+      <c r="B22" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="C22" t="s">
         <v>31</v>
@@ -780,7 +798,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/parts/MCU_atmega328p/arduino_2_328_PinOut.xlsx
+++ b/parts/MCU_atmega328p/arduino_2_328_PinOut.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="16580" yWindow="1000" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
   <si>
     <t>arduino pin</t>
   </si>
@@ -139,6 +139,18 @@
   </si>
   <si>
     <t>LCD-!RST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">to LCD Green LED </t>
+  </si>
+  <si>
+    <t xml:space="preserve">to LCD RED LED </t>
+  </si>
+  <si>
+    <t>to LCD blue LED</t>
   </si>
 </sst>
 </file>
@@ -552,7 +564,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -583,7 +595,9 @@
       <c r="B3" s="3">
         <v>23</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
@@ -592,7 +606,9 @@
       <c r="B4" s="3">
         <v>24</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
@@ -601,7 +617,9 @@
       <c r="B5" s="3">
         <v>25</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
@@ -707,6 +725,12 @@
       </c>
       <c r="B16" t="s">
         <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:4">

--- a/parts/MCU_atmega328p/arduino_2_328_PinOut.xlsx
+++ b/parts/MCU_atmega328p/arduino_2_328_PinOut.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
   <si>
     <t>arduino pin</t>
   </si>
@@ -151,6 +151,18 @@
   </si>
   <si>
     <t>to LCD blue LED</t>
+  </si>
+  <si>
+    <t>23 PC0</t>
+  </si>
+  <si>
+    <t>24 PC1</t>
+  </si>
+  <si>
+    <t>25 PC2</t>
+  </si>
+  <si>
+    <t>26 PC3</t>
   </si>
 </sst>
 </file>
@@ -212,8 +224,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -227,11 +245,17 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -561,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -575,7 +599,7 @@
     <col min="4" max="4" width="42.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20">
+    <row r="1" spans="1:5" ht="20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -583,63 +607,80 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
-        <v>23</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="B3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
-        <v>24</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="B4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
-        <v>25</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="B5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
-        <v>26</v>
-      </c>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="B6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:5">
       <c r="A9" s="3">
         <v>4</v>
       </c>
@@ -650,7 +691,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:5">
       <c r="A10" s="3">
         <v>5</v>
       </c>
@@ -661,7 +702,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:5">
       <c r="A11" s="3">
         <v>6</v>
       </c>
@@ -669,7 +710,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:5">
       <c r="A12" s="3">
         <v>7</v>
       </c>
@@ -677,60 +718,45 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:5">
       <c r="A13" s="3">
         <v>8</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="C13" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>9</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
-      <c r="C14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="C14" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>10</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
-      <c r="C15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="C15" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>11</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
-      </c>
-      <c r="C16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -822,6 +848,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/parts/MCU_atmega328p/arduino_2_328_PinOut.xlsx
+++ b/parts/MCU_atmega328p/arduino_2_328_PinOut.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/parts/MCU_atmega328p/arduino_2_328_PinOut.xlsx
+++ b/parts/MCU_atmega328p/arduino_2_328_PinOut.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -595,7 +595,7 @@
   <cols>
     <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="42.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/parts/MCU_atmega328p/arduino_2_328_PinOut.xlsx
+++ b/parts/MCU_atmega328p/arduino_2_328_PinOut.xlsx
@@ -588,7 +588,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/parts/MCU_atmega328p/arduino_2_328_PinOut.xlsx
+++ b/parts/MCU_atmega328p/arduino_2_328_PinOut.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
   <si>
     <t>arduino pin</t>
   </si>
@@ -111,9 +111,6 @@
     <t>A2 from encoder</t>
   </si>
   <si>
-    <t>select encoder</t>
-  </si>
-  <si>
     <t>LCD</t>
   </si>
   <si>
@@ -141,9 +138,6 @@
     <t>LCD-!RST</t>
   </si>
   <si>
-    <t xml:space="preserve">SELECT button </t>
-  </si>
-  <si>
     <t xml:space="preserve">to LCD Green LED </t>
   </si>
   <si>
@@ -163,6 +157,9 @@
   </si>
   <si>
     <t>26 PC3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">START button </t>
   </si>
 </sst>
 </file>
@@ -224,8 +221,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -245,17 +244,19 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -588,7 +589,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -617,13 +618,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" s="3"/>
     </row>
@@ -632,13 +633,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E4" s="3"/>
     </row>
@@ -647,13 +648,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -662,13 +663,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -688,7 +689,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -699,7 +700,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -726,7 +727,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -737,7 +738,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -748,7 +749,7 @@
         <v>15</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -785,10 +786,10 @@
         <v>7</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -796,10 +797,10 @@
         <v>6</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -815,10 +816,10 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="D25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:4">
